--- a/documentos/arquivos/Dashboard PI.xlsx
+++ b/documentos/arquivos/Dashboard PI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\sprint2\documentos\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{64291196-07E8-498F-B212-38BB3A03C8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A267E9-C545-4043-8FB8-FC7F2C9F5B2E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70846D06-3EBD-4264-A81D-B6EA01CCC685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="4" xr2:uid="{0EBB4372-76FE-4361-941E-10377D18A482}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{0EBB4372-76FE-4361-941E-10377D18A482}"/>
   </bookViews>
   <sheets>
     <sheet name="Linha - Ocupação por período" sheetId="5" r:id="rId1"/>
@@ -137,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,7 +416,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
@@ -424,10 +424,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,10 +475,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -490,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,22 +499,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,7 +532,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -598,7 +598,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1344,7 +1344,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="19895616"/>
@@ -1403,7 +1403,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="19897536"/>
@@ -1451,7 +1451,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1465,7 +1465,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1531,7 +1531,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2280,7 +2280,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="19895616"/>
@@ -2339,7 +2339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="19897536"/>
@@ -2387,7 +2387,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2401,7 +2401,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2444,7 +2444,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2586,7 +2586,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="357256879"/>
@@ -2645,7 +2645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="357254959"/>
@@ -2705,7 +2705,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2719,7 +2719,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2798,7 +2798,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2911,7 +2911,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3068,7 +3068,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3169,7 +3169,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -3189,7 +3189,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -3230,7 +3230,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3264,7 +3264,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5733,7 +5733,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6032,17 +6032,17 @@
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75">
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="18.75">
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="D3" s="28"/>
     </row>
-    <row r="4" spans="2:4" ht="18.75">
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
@@ -6074,12 +6074,12 @@
       </c>
       <c r="D4" s="28"/>
     </row>
-    <row r="7" spans="2:4" ht="18.75">
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18.75">
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
         <v>5</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="18.75">
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18.75">
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="28" t="s">
         <v>7</v>
       </c>
@@ -6153,13 +6153,13 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75">
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
@@ -6171,12 +6171,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="18.75">
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18.75">
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
         <v>5</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="18.75">
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18.75">
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="28" t="s">
         <v>7</v>
       </c>
@@ -6246,13 +6246,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E42EF97-4F44-48D7-B051-2A19AEFC4742}">
   <dimension ref="A1:M271"/>
   <sheetViews>
-    <sheetView topLeftCell="G96" workbookViewId="0">
+    <sheetView topLeftCell="G108" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6319,10 +6319,10 @@
       </c>
       <c r="M3">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6344,10 +6344,10 @@
       </c>
       <c r="M4">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6494,10 +6494,10 @@
       </c>
       <c r="M10">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6544,10 +6544,10 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6669,10 +6669,10 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6694,10 +6694,10 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6744,10 +6744,10 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6794,10 +6794,10 @@
       </c>
       <c r="M22">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6944,10 +6944,10 @@
       </c>
       <c r="M28">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6965,10 +6965,10 @@
       </c>
       <c r="M29">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7112,10 +7112,10 @@
       </c>
       <c r="M36">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7133,10 +7133,10 @@
       </c>
       <c r="M37">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7175,10 +7175,10 @@
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7196,10 +7196,10 @@
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7217,10 +7217,10 @@
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7280,10 +7280,10 @@
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7301,10 +7301,10 @@
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7406,10 +7406,10 @@
       </c>
       <c r="M50">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7469,10 +7469,10 @@
       </c>
       <c r="M53">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7553,10 +7553,10 @@
       </c>
       <c r="M57">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7574,10 +7574,10 @@
       </c>
       <c r="M58">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7616,10 +7616,10 @@
       </c>
       <c r="M60">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7637,10 +7637,10 @@
       </c>
       <c r="M61">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7679,10 +7679,10 @@
       </c>
       <c r="M63">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7721,10 +7721,10 @@
       </c>
       <c r="M65">
         <f t="shared" ref="M65:M74" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7742,10 +7742,10 @@
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7763,10 +7763,10 @@
       </c>
       <c r="M67">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7784,10 +7784,10 @@
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7805,10 +7805,10 @@
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7847,10 +7847,10 @@
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7889,10 +7889,10 @@
       </c>
       <c r="M73">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7910,10 +7910,10 @@
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7973,10 +7973,10 @@
       </c>
       <c r="M77">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8015,10 +8015,10 @@
       </c>
       <c r="M79">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8057,10 +8057,10 @@
       </c>
       <c r="M81">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8099,10 +8099,10 @@
       </c>
       <c r="M83">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8120,10 +8120,10 @@
       </c>
       <c r="M84">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8204,10 +8204,10 @@
       </c>
       <c r="M88">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8267,10 +8267,10 @@
       </c>
       <c r="M91">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8309,10 +8309,10 @@
       </c>
       <c r="M93">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8330,10 +8330,10 @@
       </c>
       <c r="M94">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8393,10 +8393,10 @@
       </c>
       <c r="M97">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8435,10 +8435,10 @@
       </c>
       <c r="M99">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8456,10 +8456,10 @@
       </c>
       <c r="M100">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8477,10 +8477,10 @@
       </c>
       <c r="M101">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8498,10 +8498,10 @@
       </c>
       <c r="M102">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8624,10 +8624,10 @@
       </c>
       <c r="M108">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8687,10 +8687,10 @@
       </c>
       <c r="M111">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8729,10 +8729,10 @@
       </c>
       <c r="M113">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8792,10 +8792,10 @@
       </c>
       <c r="M116">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8876,10 +8876,10 @@
       </c>
       <c r="M120">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8897,10 +8897,10 @@
       </c>
       <c r="M121">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8918,10 +8918,10 @@
       </c>
       <c r="M122">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8939,10 +8939,10 @@
       </c>
       <c r="M123">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8960,10 +8960,10 @@
       </c>
       <c r="M124">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8981,10 +8981,10 @@
       </c>
       <c r="M125">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9023,10 +9023,10 @@
       </c>
       <c r="M127">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9044,10 +9044,10 @@
       </c>
       <c r="M128">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9065,10 +9065,10 @@
       </c>
       <c r="M129">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9107,10 +9107,10 @@
       </c>
       <c r="M131">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9149,10 +9149,10 @@
       </c>
       <c r="M133">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9170,10 +9170,10 @@
       </c>
       <c r="M134">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9320,10 +9320,10 @@
       </c>
       <c r="M142">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9338,10 +9338,10 @@
       </c>
       <c r="M143">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9392,10 +9392,10 @@
       </c>
       <c r="M146">
         <f t="shared" ref="M146:M155" ca="1" si="6">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9410,10 +9410,10 @@
       </c>
       <c r="M147">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9446,10 +9446,10 @@
       </c>
       <c r="M149">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9554,10 +9554,10 @@
       </c>
       <c r="M155">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9572,10 +9572,10 @@
       </c>
       <c r="M156">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9590,10 +9590,10 @@
       </c>
       <c r="M157">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9608,10 +9608,10 @@
       </c>
       <c r="M158">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9788,10 +9788,10 @@
       </c>
       <c r="M168">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9842,10 +9842,10 @@
       </c>
       <c r="M171">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9860,10 +9860,10 @@
       </c>
       <c r="M172">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9896,10 +9896,10 @@
       </c>
       <c r="M174">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9914,10 +9914,10 @@
       </c>
       <c r="M175">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9932,10 +9932,10 @@
       </c>
       <c r="M176">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9950,10 +9950,10 @@
       </c>
       <c r="M177">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9986,10 +9986,10 @@
       </c>
       <c r="M179">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10004,10 +10004,10 @@
       </c>
       <c r="M180">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10022,10 +10022,10 @@
       </c>
       <c r="M181">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10040,10 +10040,10 @@
       </c>
       <c r="M182">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10058,10 +10058,10 @@
       </c>
       <c r="M183">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10076,10 +10076,10 @@
       </c>
       <c r="M184">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10166,10 +10166,10 @@
       </c>
       <c r="M189">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10202,10 +10202,10 @@
       </c>
       <c r="M191">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10256,10 +10256,10 @@
       </c>
       <c r="M194">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10274,10 +10274,10 @@
       </c>
       <c r="M195">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10292,10 +10292,10 @@
       </c>
       <c r="M196">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10382,10 +10382,10 @@
       </c>
       <c r="M201">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10400,10 +10400,10 @@
       </c>
       <c r="M202">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10418,10 +10418,10 @@
       </c>
       <c r="M203">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10436,10 +10436,10 @@
       </c>
       <c r="M204">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10490,10 +10490,10 @@
       </c>
       <c r="M207">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10526,10 +10526,10 @@
       </c>
       <c r="M209">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10562,10 +10562,10 @@
       </c>
       <c r="M211">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10580,10 +10580,10 @@
       </c>
       <c r="M212">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10706,10 +10706,10 @@
       </c>
       <c r="M219">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10742,10 +10742,10 @@
       </c>
       <c r="M221">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10778,10 +10778,10 @@
       </c>
       <c r="M223">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10796,10 +10796,10 @@
       </c>
       <c r="M224">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10832,10 +10832,10 @@
       </c>
       <c r="M226">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10850,10 +10850,10 @@
       </c>
       <c r="M227">
         <f t="shared" ref="M227:M236" ca="1" si="9">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10922,10 +10922,10 @@
       </c>
       <c r="M231">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10976,10 +10976,10 @@
       </c>
       <c r="M234">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11030,10 +11030,10 @@
       </c>
       <c r="M237">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11138,10 +11138,10 @@
       </c>
       <c r="M243">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11174,10 +11174,10 @@
       </c>
       <c r="M245">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11264,10 +11264,10 @@
       </c>
       <c r="M250">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11300,10 +11300,10 @@
       </c>
       <c r="M252">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11354,10 +11354,10 @@
       </c>
       <c r="M255">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11372,10 +11372,10 @@
       </c>
       <c r="M256">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11462,10 +11462,10 @@
       </c>
       <c r="M261">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11498,10 +11498,10 @@
       </c>
       <c r="M263">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -11658,7 +11658,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
@@ -11669,7 +11669,7 @@
     <col min="9" max="10" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
@@ -11691,7 +11691,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>0.25</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>0.29166666666666669</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>0.33333333333333298</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>0.375</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>0.25</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0.29166666666666669</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>0.33333333333333298</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0.375</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>0.25</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0.29166666666666669</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>0.33333333333333298</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>0.375</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>0.25</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0.29166666666666669</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>0.33333333333333298</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>0.375</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -12036,10 +12036,10 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
@@ -12048,7 +12048,7 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
         <v>0.25</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>13</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
         <v>0.25</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
         <v>0.25</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="24">
         <v>0.25</v>
       </c>
@@ -12163,15 +12163,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100304D1BD6A797FA429AD32DD54426A246" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e35a718f99b259fb6f4d5b2085aee5ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d029c515-0698-44b3-a257-13b9aeaa6222" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e3a67cfaa2d42426d64ed184a490dd0" ns3:_="">
     <xsd:import namespace="d029c515-0698-44b3-a257-13b9aeaa6222"/>
@@ -12353,6 +12344,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12362,13 +12362,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C13DBE9D-70B0-4941-BF24-4C02E6FDCBBC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2F7D07D-D92A-4B02-88C7-2A4159777948}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d029c515-0698-44b3-a257-13b9aeaa6222"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2F7D07D-D92A-4B02-88C7-2A4159777948}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C13DBE9D-70B0-4941-BF24-4C02E6FDCBBC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A358697-6777-48C4-A7DE-388A9C67F15F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A358697-6777-48C4-A7DE-388A9C67F15F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d029c515-0698-44b3-a257-13b9aeaa6222"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>